--- a/biology/Botanique/Boophone/Boophone.xlsx
+++ b/biology/Botanique/Boophone/Boophone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boophone est un genre de la famille des Amaryllidaceae. Il se compose de trois espèces de plantes bulbeuses de grande taille vivant en Afrique.
 </t>
@@ -511,11 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la famille des Amaryllidaceae, Boophone est le genre unique de la sous-tribu Boophoninae, dans la tribu des Amaryllideae.
-Phylogénie
-Les boophoninae sont placés dans la tribu des Amaryllidae comme suit, en fonction de leur relation phylogénétique : 
 </t>
         </is>
       </c>
@@ -541,21 +553,97 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les boophoninae sont placés dans la tribu des Amaryllidae comme suit, en fonction de leur relation phylogénétique : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boophone</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boophone</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Espèces reconnues
-Selon [réf. nécessaire] :
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces reconnues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon [réf. nécessaire] :
 Boophone disticha Herb.
 Boophone ernestii-ruschii Dinter ex Solch   = Boophone haemanthoides subsp. ernesti-ruschii (Dinter &amp; G.M.Schulze) G.D.Duncan &amp; C.C.Tsang
 Boophone haemanthoides Leighton
-Selon World Checklist of Selected Plant Families (WCSP)  (6 Aug 2010)[1] et NCBI  (6 Aug 2010)[2]:
+Selon World Checklist of Selected Plant Families (WCSP)  (6 Aug 2010) et NCBI  (6 Aug 2010):
 Boophone disticha      (L.f.) Herb. (1825)
-Boophone haemanthoides F.M.Leight. (1947)
-Espèces qui ne sont plus reconnues comme étant du genre Boophone
-Autres espèces ayant été classées dans le genre Boophone :
+Boophone haemanthoides F.M.Leight. (1947)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Boophone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boophone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces qui ne sont plus reconnues comme étant du genre Boophone</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Autres espèces ayant été classées dans le genre Boophone :
 Boophone amaryllidea M.Roem. = Crossyne ciliaris
 Boophone angolensis Baker = Crinum angolense
 Boophone ciliaris Herb. = Crossyne ciliaris
@@ -569,31 +657,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Boophone</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Boophone</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boophone</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boophone</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Boophone sont originaires du continent africain.
 Boophone disticha a l'aire de répartition la plus vaste. On le trouve sporadiquement en Namibie, Botswana, puis sa répartition est continue depuis le sud du Namaqualand et la province du Western Cape jusqu'au Kenya en passant par tout l'est de l'Afrique du Sud. On le trouve dans des régions à pluies estivales, même si elles s'échelonnent au cours de l'année.
@@ -603,68 +693,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Boophone</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Boophone</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Boophone sont des plantes à bulbes. D'ailleurs le bulbe est d'une taille considérable : il peut atteindre une trentaine de centimètres de hauteur pour près de 20 de largeur pour l'espèce disticha. Les autres espèces sont légèrement plus petites, mais elles présentent ce même bulbe recouvert d'une épaisse tunique brune, le protégeant tout particulièrement des feux de brousse. Après les pluies, l'inflorescence apparait. Portée par une courte, mais large tige. Les fleurs, nombreuses et petites, sont regroupées en une inflorescence sphérique. Un grand éventail de feuilles émerge de ce bulbe, après la floraison. Coriaces et vert-gris, les feuilles de Boophone disticha mesurent au moins 45 cm de long, pour 5 cm de large en moyenne.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Boophone</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Boophone</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Étymologie et synonymes</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Herbert a écrit le nom sous trois orthographes : Boophane (1821) puis Buphane et Buphone (1825), conservant Buphane en 1837. Une première interprétation (Wittstein 1856, Milne-Redhead &amp; Schweickerdt 1939, Milne-Redhead 1939) voit un dérivé du grec Boos bœuf et phonos tueur, allusion à la toxicité pour le bétail. Ce point de vue a été à l'origine de l'orthographe actuellement en cours : Boophone. Dans une autre hypothèse bou est compris comme préfixe exprimant la grandeur tandis que le dérivé grec phane, torche, décrirait l'aspect de la plante fleurie. Cela expliquerait la dernière orthographe utilisée par Herbert. Mais actuellement, c’est la dénomination Boophone qui est utilisé, Boophane étant considéré comme faux.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -686,10 +714,78 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Boophone sont des plantes à bulbes. D'ailleurs le bulbe est d'une taille considérable : il peut atteindre une trentaine de centimètres de hauteur pour près de 20 de largeur pour l'espèce disticha. Les autres espèces sont légèrement plus petites, mais elles présentent ce même bulbe recouvert d'une épaisse tunique brune, le protégeant tout particulièrement des feux de brousse. Après les pluies, l'inflorescence apparait. Portée par une courte, mais large tige. Les fleurs, nombreuses et petites, sont regroupées en une inflorescence sphérique. Un grand éventail de feuilles émerge de ce bulbe, après la floraison. Coriaces et vert-gris, les feuilles de Boophone disticha mesurent au moins 45 cm de long, pour 5 cm de large en moyenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boophone</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boophone</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Étymologie et synonymes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Herbert a écrit le nom sous trois orthographes : Boophane (1821) puis Buphane et Buphone (1825), conservant Buphane en 1837. Une première interprétation (Wittstein 1856, Milne-Redhead &amp; Schweickerdt 1939, Milne-Redhead 1939) voit un dérivé du grec Boos bœuf et phonos tueur, allusion à la toxicité pour le bétail. Ce point de vue a été à l'origine de l'orthographe actuellement en cours : Boophone. Dans une autre hypothèse bou est compris comme préfixe exprimant la grandeur tandis que le dérivé grec phane, torche, décrirait l'aspect de la plante fleurie. Cela expliquerait la dernière orthographe utilisée par Herbert. Mais actuellement, c’est la dénomination Boophone qui est utilisé, Boophane étant considéré comme faux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Boophone</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boophone</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes bulbeuses venant des zones arides. Elles ont donc besoin d'un substrat très léger. Un mélange composé de 1/4 de pouzoulane concassée, 1/4 de sable grossier et 1/2 de terre de jardin convient assez bien il faut arroser parcimonieusement et bien laisser sécher entre deux arrosage. Lorsque la plante a fini sa période de croissance il faut laisser le bulbe dans un endroit très sec et frais, dans l'obscurité.
 </t>
